--- a/ref_address.xlsx
+++ b/ref_address.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\excel_column_cleaner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nikolamotor-my.sharepoint.com/personal/pierre_congiu_nikolamotor_com/Documents/Documents/Repositories/excel_column_cleaner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9F4CC4-7D70-491C-9BCC-FF295EDA0629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{971C35C1-75D5-457E-8FA3-0C21794B1136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B31D3F9-B410-4EC8-B717-03B5FCDB0F53}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Index:</t>
   </si>
@@ -65,9 +65,6 @@
     <t>In-and-out</t>
   </si>
   <si>
-    <t xml:space="preserve">Burger King </t>
-  </si>
-  <si>
     <t>McDonalds</t>
   </si>
   <si>
@@ -105,6 +102,15 @@
   </si>
   <si>
     <t>8 boulevard Qorvo</t>
+  </si>
+  <si>
+    <t>Burger King Greensboro</t>
+  </si>
+  <si>
+    <t>Burger King Phoenix</t>
+  </si>
+  <si>
+    <t>2 road Phoenix</t>
   </si>
 </sst>
 </file>
@@ -422,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,112 +449,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
